--- a/6Timetable/data/20220222/市３会場巽今宮予約枠3月分.xlsx
+++ b/6Timetable/data/20220222/市３会場巽今宮予約枠3月分.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="G2" s="8">
         <v>0.40972222222222232</v>
@@ -1126,11 +1126,11 @@
       </c>
       <c r="I2" s="9" t="str">
         <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-02T09:50:00.000+9</v>
+        <v>2022-02-23T09:50:00.000+9</v>
       </c>
       <c r="J2" s="9" t="str">
         <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-02T17:20:00.000+9</v>
+        <v>2022-02-23T17:20:00.000+9</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="6">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="G3" s="8">
         <v>0.40972222222222232</v>
@@ -1156,11 +1156,11 @@
       </c>
       <c r="I3" s="9" t="str">
         <f>TEXT(F3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G3,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-02T09:50:00.000+9</v>
+        <v>2022-02-23T09:50:00.000+9</v>
       </c>
       <c r="J3" s="9" t="str">
         <f>TEXT(F3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H3,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-02T17:20:00.000+9</v>
+        <v>2022-02-23T17:20:00.000+9</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="6">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="G4" s="8">
         <v>0.40972222222222232</v>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="I4" s="9" t="str">
         <f>TEXT(F4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G4,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-02T09:50:00.000+9</v>
+        <v>2022-02-23T09:50:00.000+9</v>
       </c>
       <c r="J4" s="9" t="str">
         <f>TEXT(F4,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H4,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-02T17:20:00.000+9</v>
+        <v>2022-02-23T17:20:00.000+9</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1206,7 +1206,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="6">
-        <v>44621</v>
+        <v>44615</v>
       </c>
       <c r="G5" s="8">
         <v>0.58333333333333337</v>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="I5" s="9" t="str">
         <f>TEXT(F5,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G5,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-01T14:00:00.000+9</v>
+        <v>2022-02-23T14:00:00.000+9</v>
       </c>
       <c r="J5" s="9" t="str">
         <f>TEXT(F5,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H5,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-01T16:00:00.000+9</v>
+        <v>2022-02-23T16:00:00.000+9</v>
       </c>
     </row>
   </sheetData>
@@ -1235,8 +1235,8 @@
   <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="29">
         <v>120</v>
@@ -1415,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="30">
         <v>120</v>
@@ -1478,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="L4" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="30">
         <v>120</v>
@@ -1541,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="30">
         <v>120</v>
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="30">
         <v>120</v>
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="30">
         <v>120</v>
@@ -1730,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="L8" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="30">
         <v>120</v>
@@ -1793,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="30">
         <v>120</v>
@@ -1856,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="30">
         <v>120</v>
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="L11" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="30">
         <v>120</v>
@@ -1982,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="31">
         <v>120</v>
@@ -2045,7 +2045,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="31">
         <v>120</v>
@@ -2108,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="31">
         <v>120</v>
@@ -2171,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="31">
         <v>120</v>
@@ -2238,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="32">
         <v>120</v>
@@ -2305,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="32">
         <v>120</v>
@@ -2372,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="32">
         <v>120</v>
@@ -2439,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="33">
         <v>120</v>
@@ -2502,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="L20" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="29">
         <v>120</v>
@@ -2565,7 +2565,7 @@
         <v>8</v>
       </c>
       <c r="L21" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="30">
         <v>120</v>
@@ -2628,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="30">
         <v>120</v>
@@ -2691,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="L23" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="30">
         <v>120</v>
@@ -2754,7 +2754,7 @@
         <v>8</v>
       </c>
       <c r="L24" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="30">
         <v>120</v>
@@ -2817,7 +2817,7 @@
         <v>8</v>
       </c>
       <c r="L25" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="30">
         <v>120</v>
@@ -2880,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="L26" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="30">
         <v>120</v>
@@ -2943,7 +2943,7 @@
         <v>8</v>
       </c>
       <c r="L27" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="30">
         <v>120</v>
@@ -3006,7 +3006,7 @@
         <v>8</v>
       </c>
       <c r="L28" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="30">
         <v>120</v>
@@ -3069,7 +3069,7 @@
         <v>8</v>
       </c>
       <c r="L29" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="30">
         <v>120</v>
@@ -3132,7 +3132,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="31">
         <v>120</v>
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" s="31">
         <v>120</v>
@@ -3258,7 +3258,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="31">
         <v>120</v>
@@ -3321,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="31">
         <v>120</v>
@@ -3388,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="32">
         <v>120</v>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="32">
         <v>120</v>
@@ -3522,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="L36" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="32">
         <v>120</v>
@@ -3589,7 +3589,7 @@
         <v>10</v>
       </c>
       <c r="L37" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="33">
         <v>120</v>
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="L38" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="29">
         <v>120</v>
@@ -3715,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="L39" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="30">
         <v>120</v>
@@ -3778,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="L40" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="30">
         <v>120</v>
@@ -3841,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="L41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="30">
         <v>120</v>
@@ -3904,7 +3904,7 @@
         <v>8</v>
       </c>
       <c r="L42" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="30">
         <v>120</v>
@@ -3967,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="L43" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="30">
         <v>120</v>
@@ -4030,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="L44" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="30">
         <v>120</v>
@@ -4093,7 +4093,7 @@
         <v>8</v>
       </c>
       <c r="L45" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" s="30">
         <v>120</v>
@@ -4156,7 +4156,7 @@
         <v>8</v>
       </c>
       <c r="L46" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" s="30">
         <v>120</v>
@@ -4219,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="L47" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="30">
         <v>120</v>
@@ -4282,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="L48" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="31">
         <v>120</v>
@@ -4345,7 +4345,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" s="31">
         <v>120</v>
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="L50" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" s="31">
         <v>120</v>
@@ -4471,7 +4471,7 @@
         <v>10</v>
       </c>
       <c r="L51" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" s="31">
         <v>120</v>
@@ -4538,7 +4538,7 @@
         <v>10</v>
       </c>
       <c r="L52" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="32">
         <v>120</v>
@@ -4605,7 +4605,7 @@
         <v>10</v>
       </c>
       <c r="L53" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" s="32">
         <v>120</v>
@@ -4672,7 +4672,7 @@
         <v>10</v>
       </c>
       <c r="L54" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="32">
         <v>120</v>
@@ -4739,7 +4739,7 @@
         <v>10</v>
       </c>
       <c r="L55" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" s="33">
         <v>120</v>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="L59" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59" s="32">
         <v>120</v>
@@ -5066,7 +5066,7 @@
         <v>20</v>
       </c>
       <c r="L60" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M60" s="32">
         <v>120</v>
@@ -5129,7 +5129,7 @@
         <v>20</v>
       </c>
       <c r="L61" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" s="32">
         <v>120</v>
@@ -5192,7 +5192,7 @@
         <v>20</v>
       </c>
       <c r="L62" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62" s="32">
         <v>120</v>
@@ -5255,7 +5255,7 @@
         <v>20</v>
       </c>
       <c r="L63" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" s="32">
         <v>120</v>
@@ -5318,7 +5318,7 @@
         <v>20</v>
       </c>
       <c r="L64" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64" s="32">
         <v>120</v>
@@ -5381,7 +5381,7 @@
         <v>20</v>
       </c>
       <c r="L65" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" s="32">
         <v>120</v>
@@ -5444,7 +5444,7 @@
         <v>20</v>
       </c>
       <c r="L66" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M66" s="32">
         <v>120</v>
@@ -5507,7 +5507,7 @@
         <v>20</v>
       </c>
       <c r="L67" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M67" s="32">
         <v>120</v>
@@ -5570,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="L68" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M68" s="32">
         <v>120</v>
@@ -5633,7 +5633,7 @@
         <v>20</v>
       </c>
       <c r="L69" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M69" s="32">
         <v>120</v>
@@ -5696,7 +5696,7 @@
         <v>20</v>
       </c>
       <c r="L70" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M70" s="32">
         <v>120</v>
@@ -5759,7 +5759,7 @@
         <v>20</v>
       </c>
       <c r="L71" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" s="32">
         <v>120</v>
@@ -5822,7 +5822,7 @@
         <v>20</v>
       </c>
       <c r="L72" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72" s="32">
         <v>120</v>

--- a/6Timetable/data/20220222/市３会場巽今宮予約枠3月分.xlsx
+++ b/6Timetable/data/20220222/市３会場巽今宮予約枠3月分.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>開始時</t>
   </si>
@@ -208,21 +208,6 @@
     <t>予約枠あたりの優先接種者数</t>
   </si>
   <si>
-    <r>
-      <t>2/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～2/27_総合保健福祉センター（モデルナ）</t>
-    </r>
-  </si>
-  <si>
     <t>予約開始までの日数</t>
   </si>
   <si>
@@ -240,12 +225,6 @@
       <t>ツキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2/2～2/27_東生涯学習センター（モデルナ）</t>
-  </si>
-  <si>
-    <t>2/2～2/27_西南生涯学習センター（モデルナ）</t>
   </si>
   <si>
     <r>
@@ -1105,7 +1084,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1135,7 +1114,7 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1195,10 +1174,10 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -1235,8 +1214,8 @@
   <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,7 +1240,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>25</v>
@@ -1297,13 +1276,13 @@
         <v>26</v>
       </c>
       <c r="M1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="P1" s="18" t="s">
         <v>24</v>
@@ -1318,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1329,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="19" t="b">
         <v>1</v>
@@ -1392,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="20" t="b">
         <v>1</v>
@@ -1455,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="20" t="b">
         <v>1</v>
@@ -1518,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="20" t="b">
         <v>1</v>
@@ -1581,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="20" t="b">
         <v>1</v>
@@ -1644,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="20" t="b">
         <v>1</v>
@@ -1707,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="20" t="b">
         <v>1</v>
@@ -1770,7 +1749,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="20" t="b">
         <v>1</v>
@@ -1833,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="20" t="b">
         <v>1</v>
@@ -1896,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="20" t="b">
         <v>1</v>
@@ -1959,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="21" t="b">
         <v>1</v>
@@ -2022,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="21" t="b">
         <v>1</v>
@@ -2085,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="21" t="b">
         <v>1</v>
@@ -2148,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="21" t="b">
         <v>1</v>
@@ -2211,7 +2190,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="22" t="b">
         <v>1</v>
@@ -2278,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="22" t="b">
         <v>1</v>
@@ -2345,7 +2324,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="22" t="b">
         <v>1</v>
@@ -2412,7 +2391,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="23" t="b">
         <v>1</v>
@@ -2479,7 +2458,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="19" t="b">
         <v>1</v>
@@ -2542,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="20" t="b">
         <v>1</v>
@@ -2605,7 +2584,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="20" t="b">
         <v>1</v>
@@ -2668,7 +2647,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="20" t="b">
         <v>1</v>
@@ -2731,7 +2710,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="20" t="b">
         <v>1</v>
@@ -2794,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="20" t="b">
         <v>1</v>
@@ -2857,7 +2836,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" s="20" t="b">
         <v>1</v>
@@ -2920,7 +2899,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" s="20" t="b">
         <v>1</v>
@@ -2983,7 +2962,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" s="20" t="b">
         <v>1</v>
@@ -3046,7 +3025,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="20" t="b">
         <v>1</v>
@@ -3109,7 +3088,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" s="21" t="b">
         <v>1</v>
@@ -3172,7 +3151,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31" s="21" t="b">
         <v>1</v>
@@ -3235,7 +3214,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D32" s="21" t="b">
         <v>1</v>
@@ -3298,7 +3277,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33" s="21" t="b">
         <v>1</v>
@@ -3361,7 +3340,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34" s="22" t="b">
         <v>1</v>
@@ -3428,7 +3407,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D35" s="22" t="b">
         <v>1</v>
@@ -3495,7 +3474,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D36" s="22" t="b">
         <v>1</v>
@@ -3562,7 +3541,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D37" s="23" t="b">
         <v>1</v>
@@ -4779,7 +4758,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D56" s="6" t="b">
         <v>1</v>
@@ -4819,7 +4798,7 @@
       </c>
       <c r="P56" s="35" t="str">
         <f>C56&amp;"/"&amp;TEXT(E56,"yyyy-mm-dd")</f>
-        <v>2/2～2/27_総合保健福祉センター（モデルナ）/2022-02-23</v>
+        <v>3/2～3/31_総合保健福祉センター（モデルナ）/2022-02-23</v>
       </c>
       <c r="Q56" s="9" t="str">
         <f>TEXT(E56,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F56,"hh:MM")&amp;":00.000+9"</f>
@@ -4886,7 +4865,7 @@
       </c>
       <c r="P57" s="35" t="str">
         <f>C57&amp;"/"&amp;TEXT(E57,"yyyy-mm-dd")</f>
-        <v>2/2～2/27_東生涯学習センター（モデルナ）/2022-02-23</v>
+        <v>3/2～3/31_東生涯学習センター（モデルナ）/2022-02-23</v>
       </c>
       <c r="Q57" s="9" t="str">
         <f>TEXT(E57,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F57,"hh:MM")&amp;":00.000+9"</f>
@@ -4912,8 +4891,8 @@
       <c r="B58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>34</v>
+      <c r="C58" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D58" s="6" t="b">
         <v>1</v>
@@ -4953,7 +4932,7 @@
       </c>
       <c r="P58" s="35" t="str">
         <f>C58&amp;"/"&amp;TEXT(E58,"yyyy-mm-dd")</f>
-        <v>2/2～2/27_西南生涯学習センター（モデルナ）/2022-02-23</v>
+        <v>3/2～3/31_西南生涯学習センター（モデルナ）/2022-02-23</v>
       </c>
       <c r="Q58" s="9" t="str">
         <f>TEXT(E58,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F58,"hh:MM")&amp;":00.000+9"</f>
@@ -4980,7 +4959,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D59" s="43" t="b">
         <v>1</v>
@@ -5043,7 +5022,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D60" s="43" t="b">
         <v>1</v>
@@ -5106,7 +5085,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D61" s="43" t="b">
         <v>1</v>
@@ -5169,7 +5148,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D62" s="43" t="b">
         <v>1</v>
@@ -5232,7 +5211,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D63" s="43" t="b">
         <v>1</v>
@@ -5295,7 +5274,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D64" s="43" t="b">
         <v>1</v>
@@ -5358,7 +5337,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D65" s="43" t="b">
         <v>1</v>
@@ -5421,7 +5400,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D66" s="43" t="b">
         <v>1</v>
@@ -5484,7 +5463,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D67" s="43" t="b">
         <v>1</v>
@@ -5547,7 +5526,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D68" s="43" t="b">
         <v>1</v>
@@ -5610,7 +5589,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D69" s="43" t="b">
         <v>1</v>
@@ -5673,7 +5652,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D70" s="43" t="b">
         <v>1</v>
@@ -5736,7 +5715,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D71" s="43" t="b">
         <v>1</v>
@@ -5799,7 +5778,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D72" s="43" t="b">
         <v>1</v>
@@ -5862,7 +5841,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D73" s="6" t="b">
         <v>1</v>
